--- a/templates/configuracion/Seguridad/Plantillas/Plantilla cargue Rol.xlsx
+++ b/templates/configuracion/Seguridad/Plantillas/Plantilla cargue Rol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca2052e6604c4b79/Proyectos/Aplicativo_Web_Pro/templates/configuracion/Seguridad/Plantillas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{EF213A05-4B21-4751-ABF7-FEC0692DA96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD2D94F5-F981-416D-8BBC-B248399C62CD}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{EF213A05-4B21-4751-ABF7-FEC0692DA96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4306EB1-9064-40B5-8E55-FF3173DB2B87}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF71D181-65DF-4E51-B86B-BEA9379AF349}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
